--- a/public/file/lokasi.xlsx
+++ b/public/file/lokasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\luffy\project\e-budget\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BinariesProject\Kalla-Finance\sample upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0D003-FDFD-42D3-AF9B-0A516FABE192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C75212-BCB4-4A76-9E09-A51254813B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
   <si>
     <t>Kode Lokasi</t>
   </si>
@@ -66,6 +66,534 @@
     <t>BK</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Makassar</t>
+  </si>
+  <si>
+    <t>Indirect (GSO)</t>
+  </si>
+  <si>
+    <t>Cokroaminoto</t>
+  </si>
+  <si>
+    <t>Urip Sumoharjo</t>
+  </si>
+  <si>
+    <t>Alauddin</t>
+  </si>
+  <si>
+    <t>Daya</t>
+  </si>
+  <si>
+    <t>Hertasning</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>KIMA</t>
+  </si>
+  <si>
+    <t>Ahmad Yani</t>
+  </si>
+  <si>
+    <t>Mall MaRI</t>
+  </si>
+  <si>
+    <t>Urip - Service</t>
+  </si>
+  <si>
+    <t>Cahaya bone - Andalas</t>
+  </si>
+  <si>
+    <t>PDC - Daya</t>
+  </si>
+  <si>
+    <t>PDC - Pattene</t>
+  </si>
+  <si>
+    <t>Wisma Kalla</t>
+  </si>
+  <si>
+    <t>Cokro - Workshop</t>
+  </si>
+  <si>
+    <t>KIMA 17</t>
+  </si>
+  <si>
+    <t>Mall Phinisi Point</t>
+  </si>
+  <si>
+    <t>Mall Nipah</t>
+  </si>
+  <si>
+    <t>Ruko PND</t>
+  </si>
+  <si>
+    <t>Hotel Sahid - Makassar</t>
+  </si>
+  <si>
+    <t>Antang</t>
+  </si>
+  <si>
+    <t>Bugis Waterpark</t>
+  </si>
+  <si>
+    <t>Baruga - Pengelola</t>
+  </si>
+  <si>
+    <t>Mall Trans</t>
+  </si>
+  <si>
+    <t>Tanjung</t>
+  </si>
+  <si>
+    <t>Omarrasheed</t>
+  </si>
+  <si>
+    <t>Aishakamilah</t>
+  </si>
+  <si>
+    <t>Shafiyah</t>
+  </si>
+  <si>
+    <t>Makassar - Logistik</t>
+  </si>
+  <si>
+    <t>DEPO</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Tanjung Precast</t>
+  </si>
+  <si>
+    <t>Tugboat</t>
+  </si>
+  <si>
+    <t>Daya - Logistik</t>
+  </si>
+  <si>
+    <t>Kima Mortar</t>
+  </si>
+  <si>
+    <t>Tun Abdul Razak</t>
+  </si>
+  <si>
+    <t>Maros</t>
+  </si>
+  <si>
+    <t>Pangkep</t>
+  </si>
+  <si>
+    <t>Gowa</t>
+  </si>
+  <si>
+    <t>Tombolo</t>
+  </si>
+  <si>
+    <t>Bontoramba</t>
+  </si>
+  <si>
+    <t>Lonjoboko</t>
+  </si>
+  <si>
+    <t>Pakatto</t>
+  </si>
+  <si>
+    <t>Parepare</t>
+  </si>
+  <si>
+    <t>Cahaya bone - Parepare</t>
+  </si>
+  <si>
+    <t>TAC - Parepare</t>
+  </si>
+  <si>
+    <t>Barru</t>
+  </si>
+  <si>
+    <t>Pinrang</t>
+  </si>
+  <si>
+    <t>Sidrap</t>
+  </si>
+  <si>
+    <t>Mamuju</t>
+  </si>
+  <si>
+    <t>TAC - Mamuju - Belang belang</t>
+  </si>
+  <si>
+    <t>Satelite PRE MMJ</t>
+  </si>
+  <si>
+    <t>Bulukumba</t>
+  </si>
+  <si>
+    <t>Cahaya bone - Bulukumba</t>
+  </si>
+  <si>
+    <t>Satelite UP2 BLK</t>
+  </si>
+  <si>
+    <t>Jeneponto</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Satelite PRE BON</t>
+  </si>
+  <si>
+    <t>Soppeng</t>
+  </si>
+  <si>
+    <t>Sengkang</t>
+  </si>
+  <si>
+    <t>Palopo</t>
+  </si>
+  <si>
+    <t>Luwu Utara</t>
+  </si>
+  <si>
+    <t>Masamba</t>
+  </si>
+  <si>
+    <t>Luwu</t>
+  </si>
+  <si>
+    <t>Belopa</t>
+  </si>
+  <si>
+    <t>Bua</t>
+  </si>
+  <si>
+    <t>Luwu Timur</t>
+  </si>
+  <si>
+    <t>Malili</t>
+  </si>
+  <si>
+    <t>Sorowako</t>
+  </si>
+  <si>
+    <t>Tanah Toraja</t>
+  </si>
+  <si>
+    <t>Tator</t>
+  </si>
+  <si>
+    <t>Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Polman</t>
+  </si>
+  <si>
+    <t>Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Palu</t>
+  </si>
+  <si>
+    <t>Palu Juanda</t>
+  </si>
+  <si>
+    <t>Palu Martadinata</t>
+  </si>
+  <si>
+    <t>TAC - Pantoloan</t>
+  </si>
+  <si>
+    <t>Poso</t>
+  </si>
+  <si>
+    <t>Satelite MTD POS</t>
+  </si>
+  <si>
+    <t>Banggai</t>
+  </si>
+  <si>
+    <t>Luwuk Banggai</t>
+  </si>
+  <si>
+    <t>Luwuk</t>
+  </si>
+  <si>
+    <t>TAC - Pagimana</t>
+  </si>
+  <si>
+    <t>Sulawesi Tenggara</t>
+  </si>
+  <si>
+    <t>Kendari</t>
+  </si>
+  <si>
+    <t>TAC - Kessilampe</t>
+  </si>
+  <si>
+    <t>KD2</t>
+  </si>
+  <si>
+    <t>KD3</t>
+  </si>
+  <si>
+    <t>Konawe</t>
+  </si>
+  <si>
+    <t>Unaha</t>
+  </si>
+  <si>
+    <t>Baubau</t>
+  </si>
+  <si>
+    <t>Kolaka</t>
+  </si>
+  <si>
+    <t>Kolaka Utara</t>
+  </si>
+  <si>
+    <t>Konawe selatan</t>
+  </si>
+  <si>
+    <t>Bombana</t>
+  </si>
+  <si>
+    <t>Gorontalo</t>
+  </si>
+  <si>
+    <t>Cahaya bone - Gorontalo</t>
+  </si>
+  <si>
+    <t>TAC - Anggrek</t>
+  </si>
+  <si>
+    <t>Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Manado</t>
+  </si>
+  <si>
+    <t>Kalimantan Barat</t>
+  </si>
+  <si>
+    <t>Kayong Utara</t>
+  </si>
+  <si>
+    <t>TAC - Kayong</t>
+  </si>
+  <si>
+    <t>Ketapang</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>TAC - Pontianak</t>
+  </si>
+  <si>
+    <t>Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Balikpapan</t>
+  </si>
+  <si>
+    <t>Balikpapan - Logistik</t>
+  </si>
+  <si>
+    <t>Banjarmasin</t>
+  </si>
+  <si>
+    <t>TAC - Banjarmasin</t>
+  </si>
+  <si>
+    <t>Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Samarinda</t>
+  </si>
+  <si>
+    <t>TAC - Palaran</t>
+  </si>
+  <si>
+    <t>Kalimantan Utara</t>
+  </si>
+  <si>
+    <t>Bulungan</t>
+  </si>
+  <si>
+    <t>TAC - Bulungan</t>
+  </si>
+  <si>
+    <t>DKI Jakarta</t>
+  </si>
+  <si>
+    <t>Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>Jakarta Selatan - Logistik</t>
+  </si>
+  <si>
+    <t>Jakarta Utara</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t>Jogja</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Surabaya - Logistik</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Barat</t>
+  </si>
+  <si>
+    <t>Lombok</t>
+  </si>
+  <si>
+    <t>TAC - Lombok</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur</t>
+  </si>
+  <si>
+    <t>Nanggro Aceh Darussalam</t>
+  </si>
+  <si>
+    <t>Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Sumatera Barat</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Maluku</t>
+  </si>
+  <si>
+    <t>Ambon</t>
+  </si>
+  <si>
+    <t>Maluku Utara</t>
+  </si>
+  <si>
+    <t>Papua Barat</t>
+  </si>
+  <si>
+    <t>Sorong</t>
+  </si>
+  <si>
+    <t>TAC - Arar</t>
+  </si>
+  <si>
+    <t>Papua</t>
+  </si>
+  <si>
+    <t>Jayapura</t>
+  </si>
+  <si>
+    <t>TAC - Jayapura - Apo</t>
+  </si>
+  <si>
+    <t>Kantor Pusat</t>
+  </si>
+  <si>
+    <t>Kantor Pusat - HO</t>
+  </si>
+  <si>
+    <t>Representative Office Kalla Group</t>
+  </si>
+  <si>
+    <t>Ex Co</t>
+  </si>
+  <si>
+    <t>Jakarta (Pemegang Saham)</t>
+  </si>
+  <si>
+    <t>Holding</t>
+  </si>
+  <si>
+    <t>Holding Kalla Group</t>
+  </si>
+  <si>
+    <t>Sub Holding</t>
+  </si>
+  <si>
+    <t>Sub Holding Oto</t>
+  </si>
+  <si>
+    <t>Sub Holding Devcon</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>KIU</t>
   </si>
   <si>
@@ -75,7 +603,7 @@
     <t>BLU</t>
   </si>
   <si>
-    <t>Testing 23244242</t>
+    <t>saat ini gabung dg tac</t>
   </si>
 </sst>
 </file>
@@ -109,8 +637,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +1014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,18 +1022,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -533,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -554,17 +1083,3080 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>490000</v>
-      </c>
-      <c r="B2">
         <v>100000</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>110000</v>
+      </c>
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>110100</v>
+      </c>
+      <c r="B4">
+        <v>110000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>110101</v>
+      </c>
+      <c r="B5">
+        <v>110100</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>110102</v>
+      </c>
+      <c r="B6">
+        <v>110100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>110103</v>
+      </c>
+      <c r="B7">
+        <v>110100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>110104</v>
+      </c>
+      <c r="B8">
+        <v>110100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>110105</v>
+      </c>
+      <c r="B9">
+        <v>110100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>110106</v>
+      </c>
+      <c r="B10">
+        <v>110100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110107</v>
+      </c>
+      <c r="B11">
+        <v>110100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>110108</v>
+      </c>
+      <c r="B12">
+        <v>110100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>110109</v>
+      </c>
+      <c r="B13">
+        <v>110100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>110110</v>
+      </c>
+      <c r="B14">
+        <v>110100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>110111</v>
+      </c>
+      <c r="B15">
+        <v>110100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>110113</v>
+      </c>
+      <c r="B16">
+        <v>110100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>110114</v>
+      </c>
+      <c r="B17">
+        <v>110100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>110115</v>
+      </c>
+      <c r="B18">
+        <v>110100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>110116</v>
+      </c>
+      <c r="B19">
+        <v>110100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>110117</v>
+      </c>
+      <c r="B20">
+        <v>110100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>110119</v>
+      </c>
+      <c r="B21">
+        <v>110100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>110120</v>
+      </c>
+      <c r="B22">
+        <v>110100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>110123</v>
+      </c>
+      <c r="B23">
+        <v>110100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>110124</v>
+      </c>
+      <c r="B24">
+        <v>110100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>110125</v>
+      </c>
+      <c r="B25">
+        <v>110100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>110130</v>
+      </c>
+      <c r="B26">
+        <v>110100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>110131</v>
+      </c>
+      <c r="B27">
+        <v>110100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>110132</v>
+      </c>
+      <c r="B28">
+        <v>110100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>110133</v>
+      </c>
+      <c r="B29">
+        <v>110100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>110134</v>
+      </c>
+      <c r="B30">
+        <v>110100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>110135</v>
+      </c>
+      <c r="B31">
+        <v>110100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>110136</v>
+      </c>
+      <c r="B32">
+        <v>110100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>110137</v>
+      </c>
+      <c r="B33">
+        <v>110100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>110138</v>
+      </c>
+      <c r="B34">
+        <v>110100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>110139</v>
+      </c>
+      <c r="B35">
+        <v>110100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>110140</v>
+      </c>
+      <c r="B36">
+        <v>110100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>110141</v>
+      </c>
+      <c r="B37">
+        <v>110100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>110142</v>
+      </c>
+      <c r="B38">
+        <v>110100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>110143</v>
+      </c>
+      <c r="B39">
+        <v>110100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>110144</v>
+      </c>
+      <c r="B40">
+        <v>110100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>110145</v>
+      </c>
+      <c r="B41">
+        <v>110100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>110146</v>
+      </c>
+      <c r="B42">
+        <v>110100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>110600</v>
+      </c>
+      <c r="B43">
+        <v>110000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>110601</v>
+      </c>
+      <c r="B44">
+        <v>110600</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>110700</v>
+      </c>
+      <c r="B45">
+        <v>110000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>110701</v>
+      </c>
+      <c r="B46">
+        <v>110700</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>110800</v>
+      </c>
+      <c r="B47">
+        <v>110000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>110801</v>
+      </c>
+      <c r="B48">
+        <v>110800</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>110802</v>
+      </c>
+      <c r="B49">
+        <v>110800</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>110803</v>
+      </c>
+      <c r="B50">
+        <v>110800</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>110804</v>
+      </c>
+      <c r="B51">
+        <v>110800</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>110805</v>
+      </c>
+      <c r="B52">
+        <v>110800</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>110900</v>
+      </c>
+      <c r="B53">
+        <v>110000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>110901</v>
+      </c>
+      <c r="B54">
+        <v>110900</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>110902</v>
+      </c>
+      <c r="B55">
+        <v>110900</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>110903</v>
+      </c>
+      <c r="B56">
+        <v>110900</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>111000</v>
+      </c>
+      <c r="B57">
+        <v>110000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>111001</v>
+      </c>
+      <c r="B58">
+        <v>111000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>111100</v>
+      </c>
+      <c r="B59">
+        <v>110000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>111101</v>
+      </c>
+      <c r="B60">
+        <v>111100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>111200</v>
+      </c>
+      <c r="B61">
+        <v>110000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>111201</v>
+      </c>
+      <c r="B62">
+        <v>111200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>111300</v>
+      </c>
+      <c r="B63">
+        <v>110000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>111301</v>
+      </c>
+      <c r="B64">
+        <v>111300</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>111302</v>
+      </c>
+      <c r="B65">
+        <v>111300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>111303</v>
+      </c>
+      <c r="B66">
+        <v>111300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>111400</v>
+      </c>
+      <c r="B67">
+        <v>110000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>111401</v>
+      </c>
+      <c r="B68">
+        <v>111400</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>111402</v>
+      </c>
+      <c r="B69">
+        <v>111400</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>111403</v>
+      </c>
+      <c r="B70">
+        <v>111400</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>111500</v>
+      </c>
+      <c r="B71">
+        <v>110000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>111501</v>
+      </c>
+      <c r="B72">
+        <v>111500</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>111600</v>
+      </c>
+      <c r="B73">
+        <v>110000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>111601</v>
+      </c>
+      <c r="B74">
+        <v>111600</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>111602</v>
+      </c>
+      <c r="B75">
+        <v>111600</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>111700</v>
+      </c>
+      <c r="B76">
+        <v>110000</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>111701</v>
+      </c>
+      <c r="B77">
+        <v>111700</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>111800</v>
+      </c>
+      <c r="B78">
+        <v>110000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>111801</v>
+      </c>
+      <c r="B79">
+        <v>111800</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>111900</v>
+      </c>
+      <c r="B80">
+        <v>110000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>111901</v>
+      </c>
+      <c r="B81">
+        <v>111900</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>112000</v>
+      </c>
+      <c r="B82">
+        <v>110000</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>112001</v>
+      </c>
+      <c r="B83">
+        <v>112000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>112100</v>
+      </c>
+      <c r="B84">
+        <v>110000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>112101</v>
+      </c>
+      <c r="B85">
+        <v>112100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>112102</v>
+      </c>
+      <c r="B86">
+        <v>112100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>112200</v>
+      </c>
+      <c r="B87">
+        <v>110000</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>112201</v>
+      </c>
+      <c r="B88">
+        <v>112200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>112202</v>
+      </c>
+      <c r="B89">
+        <v>112200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>112300</v>
+      </c>
+      <c r="B90">
+        <v>110000</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>112301</v>
+      </c>
+      <c r="B91">
+        <v>112300</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>120000</v>
+      </c>
+      <c r="B92">
+        <v>100000</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>120100</v>
+      </c>
+      <c r="B93">
+        <v>120000</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>120101</v>
+      </c>
+      <c r="B94">
+        <v>120100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>130000</v>
+      </c>
+      <c r="B95">
+        <v>100000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>130100</v>
+      </c>
+      <c r="B96">
+        <v>130000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>130101</v>
+      </c>
+      <c r="B97">
+        <v>130100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>130102</v>
+      </c>
+      <c r="B98">
+        <v>130100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>130103</v>
+      </c>
+      <c r="B99">
+        <v>130100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>91</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>130104</v>
+      </c>
+      <c r="B100">
+        <v>130100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>130200</v>
+      </c>
+      <c r="B101">
+        <v>130000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>130201</v>
+      </c>
+      <c r="B102">
+        <v>130200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>130202</v>
+      </c>
+      <c r="B103">
+        <v>130200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>130300</v>
+      </c>
+      <c r="B104">
+        <v>130000</v>
+      </c>
+      <c r="C104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>130301</v>
+      </c>
+      <c r="B105">
+        <v>130300</v>
+      </c>
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>130302</v>
+      </c>
+      <c r="B106">
+        <v>130300</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>130303</v>
+      </c>
+      <c r="B107">
+        <v>130300</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>140000</v>
+      </c>
+      <c r="B108">
+        <v>100000</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>140100</v>
+      </c>
+      <c r="B109">
+        <v>140000</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>140101</v>
+      </c>
+      <c r="B110">
+        <v>140100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>140102</v>
+      </c>
+      <c r="B111">
+        <v>140100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>103</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>140103</v>
+      </c>
+      <c r="B112">
+        <v>140100</v>
+      </c>
+      <c r="C112" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>140104</v>
+      </c>
+      <c r="B113">
+        <v>140100</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>140200</v>
+      </c>
+      <c r="B114">
+        <v>140000</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>140201</v>
+      </c>
+      <c r="B115">
+        <v>140200</v>
+      </c>
+      <c r="C115" t="s">
+        <v>107</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>140300</v>
+      </c>
+      <c r="B116">
+        <v>140000</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>140301</v>
+      </c>
+      <c r="B117">
+        <v>140300</v>
+      </c>
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>140400</v>
+      </c>
+      <c r="B118">
+        <v>140000</v>
+      </c>
+      <c r="C118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>140401</v>
+      </c>
+      <c r="B119">
+        <v>140400</v>
+      </c>
+      <c r="C119" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>140500</v>
+      </c>
+      <c r="B120">
+        <v>140000</v>
+      </c>
+      <c r="C120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>140501</v>
+      </c>
+      <c r="B121">
+        <v>140500</v>
+      </c>
+      <c r="C121" t="s">
+        <v>110</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>140600</v>
+      </c>
+      <c r="B122">
+        <v>140000</v>
+      </c>
+      <c r="C122" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>140601</v>
+      </c>
+      <c r="B123">
+        <v>140600</v>
+      </c>
+      <c r="C123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>140700</v>
+      </c>
+      <c r="B124">
+        <v>140000</v>
+      </c>
+      <c r="C124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>140701</v>
+      </c>
+      <c r="B125">
+        <v>140700</v>
+      </c>
+      <c r="C125" t="s">
+        <v>112</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>150000</v>
+      </c>
+      <c r="B126">
+        <v>100000</v>
+      </c>
+      <c r="C126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>150100</v>
+      </c>
+      <c r="B127">
+        <v>150000</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>150101</v>
+      </c>
+      <c r="B128">
+        <v>150100</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>150102</v>
+      </c>
+      <c r="B129">
+        <v>150100</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>150103</v>
+      </c>
+      <c r="B130">
+        <v>150100</v>
+      </c>
+      <c r="C130" t="s">
+        <v>113</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>160000</v>
+      </c>
+      <c r="B131">
+        <v>100000</v>
+      </c>
+      <c r="C131" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>160100</v>
+      </c>
+      <c r="B132">
+        <v>160000</v>
+      </c>
+      <c r="C132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>160101</v>
+      </c>
+      <c r="B133">
+        <v>160100</v>
+      </c>
+      <c r="C133" t="s">
+        <v>117</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>170000</v>
+      </c>
+      <c r="B134">
+        <v>100000</v>
+      </c>
+      <c r="C134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>170100</v>
+      </c>
+      <c r="B135">
+        <v>170000</v>
+      </c>
+      <c r="C135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>170101</v>
+      </c>
+      <c r="B136">
+        <v>170100</v>
+      </c>
+      <c r="C136" t="s">
+        <v>120</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>170102</v>
+      </c>
+      <c r="B137">
+        <v>170100</v>
+      </c>
+      <c r="C137" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>170200</v>
+      </c>
+      <c r="B138">
+        <v>170000</v>
+      </c>
+      <c r="C138" t="s">
+        <v>122</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>170201</v>
+      </c>
+      <c r="B139">
+        <v>170200</v>
+      </c>
+      <c r="C139" t="s">
+        <v>122</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>170202</v>
+      </c>
+      <c r="B140">
+        <v>170200</v>
+      </c>
+      <c r="C140" t="s">
+        <v>123</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>180000</v>
+      </c>
+      <c r="B141">
+        <v>100000</v>
+      </c>
+      <c r="C141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>190000</v>
+      </c>
+      <c r="B142">
+        <v>100000</v>
+      </c>
+      <c r="C142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>190100</v>
+      </c>
+      <c r="B143">
+        <v>190000</v>
+      </c>
+      <c r="C143" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>190101</v>
+      </c>
+      <c r="B144">
+        <v>190100</v>
+      </c>
+      <c r="C144" t="s">
+        <v>126</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>190102</v>
+      </c>
+      <c r="B145">
+        <v>190100</v>
+      </c>
+      <c r="C145" t="s">
+        <v>127</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>190200</v>
+      </c>
+      <c r="B146">
+        <v>190000</v>
+      </c>
+      <c r="C146" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>190201</v>
+      </c>
+      <c r="B147">
+        <v>190200</v>
+      </c>
+      <c r="C147" t="s">
+        <v>128</v>
+      </c>
+      <c r="G147" t="s">
+        <v>192</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>190202</v>
+      </c>
+      <c r="B148">
+        <v>190200</v>
+      </c>
+      <c r="C148" t="s">
+        <v>129</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>210000</v>
+      </c>
+      <c r="B149">
+        <v>100000</v>
+      </c>
+      <c r="C149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>210100</v>
+      </c>
+      <c r="B150">
+        <v>210000</v>
+      </c>
+      <c r="C150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>210101</v>
+      </c>
+      <c r="B151">
+        <v>210100</v>
+      </c>
+      <c r="C151" t="s">
+        <v>131</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>210102</v>
+      </c>
+      <c r="B152">
+        <v>210100</v>
+      </c>
+      <c r="C152" t="s">
+        <v>132</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>220000</v>
+      </c>
+      <c r="B153">
+        <v>100000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>220100</v>
+      </c>
+      <c r="B154">
+        <v>220000</v>
+      </c>
+      <c r="C154" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>220101</v>
+      </c>
+      <c r="B155">
+        <v>220100</v>
+      </c>
+      <c r="C155" t="s">
+        <v>134</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>220102</v>
+      </c>
+      <c r="B156">
+        <v>220100</v>
+      </c>
+      <c r="C156" t="s">
+        <v>135</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>230000</v>
+      </c>
+      <c r="B157">
+        <v>100000</v>
+      </c>
+      <c r="C157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>230100</v>
+      </c>
+      <c r="B158">
+        <v>230000</v>
+      </c>
+      <c r="C158" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>230101</v>
+      </c>
+      <c r="B159">
+        <v>230100</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>230102</v>
+      </c>
+      <c r="B160">
+        <v>230100</v>
+      </c>
+      <c r="C160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>230200</v>
+      </c>
+      <c r="B161">
+        <v>230000</v>
+      </c>
+      <c r="C161" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>230201</v>
+      </c>
+      <c r="B162">
+        <v>230200</v>
+      </c>
+      <c r="C162" t="s">
+        <v>139</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>240000</v>
+      </c>
+      <c r="B163">
+        <v>100000</v>
+      </c>
+      <c r="C163" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>240100</v>
+      </c>
+      <c r="B164">
+        <v>240000</v>
+      </c>
+      <c r="C164" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>240101</v>
+      </c>
+      <c r="B165">
+        <v>240100</v>
+      </c>
+      <c r="C165" t="s">
+        <v>141</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>240200</v>
+      </c>
+      <c r="B166">
+        <v>240000</v>
+      </c>
+      <c r="C166" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>240201</v>
+      </c>
+      <c r="B167">
+        <v>240200</v>
+      </c>
+      <c r="C167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>250000</v>
+      </c>
+      <c r="B168">
+        <v>100000</v>
+      </c>
+      <c r="C168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>250100</v>
+      </c>
+      <c r="B169">
+        <v>250000</v>
+      </c>
+      <c r="C169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>250101</v>
+      </c>
+      <c r="B170">
+        <v>250100</v>
+      </c>
+      <c r="C170" t="s">
+        <v>144</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>260000</v>
+      </c>
+      <c r="B171">
+        <v>100000</v>
+      </c>
+      <c r="C171" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>260100</v>
+      </c>
+      <c r="B172">
+        <v>260000</v>
+      </c>
+      <c r="C172" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>260101</v>
+      </c>
+      <c r="B173">
+        <v>260100</v>
+      </c>
+      <c r="C173" t="s">
+        <v>146</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>270000</v>
+      </c>
+      <c r="B174">
+        <v>100000</v>
+      </c>
+      <c r="C174" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>270100</v>
+      </c>
+      <c r="B175">
+        <v>270000</v>
+      </c>
+      <c r="C175" t="s">
+        <v>148</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>270101</v>
+      </c>
+      <c r="B176">
+        <v>270100</v>
+      </c>
+      <c r="C176" t="s">
+        <v>148</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>280000</v>
+      </c>
+      <c r="B177">
+        <v>100000</v>
+      </c>
+      <c r="C177" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>280100</v>
+      </c>
+      <c r="B178">
+        <v>280000</v>
+      </c>
+      <c r="C178" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>280101</v>
+      </c>
+      <c r="B179">
+        <v>280100</v>
+      </c>
+      <c r="C179" t="s">
+        <v>150</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>280102</v>
+      </c>
+      <c r="B180">
+        <v>280100</v>
+      </c>
+      <c r="C180" t="s">
+        <v>151</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>290000</v>
+      </c>
+      <c r="B181">
+        <v>100000</v>
+      </c>
+      <c r="C181" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>310000</v>
+      </c>
+      <c r="B182">
+        <v>100000</v>
+      </c>
+      <c r="C182" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>310100</v>
+      </c>
+      <c r="B183">
+        <v>310000</v>
+      </c>
+      <c r="C183" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>310101</v>
+      </c>
+      <c r="B184">
+        <v>310100</v>
+      </c>
+      <c r="C184" t="s">
+        <v>154</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>310102</v>
+      </c>
+      <c r="B185">
+        <v>310100</v>
+      </c>
+      <c r="C185" t="s">
+        <v>155</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>320000</v>
+      </c>
+      <c r="B186">
+        <v>100000</v>
+      </c>
+      <c r="C186" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>330000</v>
+      </c>
+      <c r="B187">
+        <v>100000</v>
+      </c>
+      <c r="C187" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>340000</v>
+      </c>
+      <c r="B188">
+        <v>100000</v>
+      </c>
+      <c r="C188" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>340100</v>
+      </c>
+      <c r="B189">
+        <v>340000</v>
+      </c>
+      <c r="C189" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>340101</v>
+      </c>
+      <c r="B190">
+        <v>340100</v>
+      </c>
+      <c r="C190" t="s">
+        <v>159</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>350000</v>
+      </c>
+      <c r="B191">
+        <v>100000</v>
+      </c>
+      <c r="C191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>360000</v>
+      </c>
+      <c r="B192">
+        <v>100000</v>
+      </c>
+      <c r="C192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>370000</v>
+      </c>
+      <c r="B193">
+        <v>100000</v>
+      </c>
+      <c r="C193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>380000</v>
+      </c>
+      <c r="B194">
+        <v>100000</v>
+      </c>
+      <c r="C194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>380100</v>
+      </c>
+      <c r="B195">
+        <v>380000</v>
+      </c>
+      <c r="C195" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>380101</v>
+      </c>
+      <c r="B196">
+        <v>380100</v>
+      </c>
+      <c r="C196" t="s">
+        <v>163</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>390000</v>
+      </c>
+      <c r="B197">
+        <v>100000</v>
+      </c>
+      <c r="C197" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>410000</v>
+      </c>
+      <c r="B198">
+        <v>100000</v>
+      </c>
+      <c r="C198" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>420000</v>
+      </c>
+      <c r="B199">
+        <v>100000</v>
+      </c>
+      <c r="C199" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>430000</v>
+      </c>
+      <c r="B200">
+        <v>100000</v>
+      </c>
+      <c r="C200" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>440000</v>
+      </c>
+      <c r="B201">
+        <v>100000</v>
+      </c>
+      <c r="C201" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>440100</v>
+      </c>
+      <c r="B202">
+        <v>440000</v>
+      </c>
+      <c r="C202" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>440101</v>
+      </c>
+      <c r="B203">
+        <v>440100</v>
+      </c>
+      <c r="C203" t="s">
+        <v>169</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>450000</v>
+      </c>
+      <c r="B204">
+        <v>100000</v>
+      </c>
+      <c r="C204" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>460000</v>
+      </c>
+      <c r="B205">
+        <v>100000</v>
+      </c>
+      <c r="C205" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>460100</v>
+      </c>
+      <c r="B206">
+        <v>460000</v>
+      </c>
+      <c r="C206" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>460101</v>
+      </c>
+      <c r="B207">
+        <v>460100</v>
+      </c>
+      <c r="C207" t="s">
+        <v>172</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>460102</v>
+      </c>
+      <c r="B208">
+        <v>460100</v>
+      </c>
+      <c r="C208" t="s">
+        <v>173</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>470000</v>
+      </c>
+      <c r="B209">
+        <v>100000</v>
+      </c>
+      <c r="C209" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>470100</v>
+      </c>
+      <c r="B210">
+        <v>470000</v>
+      </c>
+      <c r="C210" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>470101</v>
+      </c>
+      <c r="B211">
+        <v>470100</v>
+      </c>
+      <c r="C211" t="s">
+        <v>175</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>470102</v>
+      </c>
+      <c r="B212">
+        <v>470100</v>
+      </c>
+      <c r="C212" t="s">
+        <v>176</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>480000</v>
+      </c>
+      <c r="B213">
+        <v>100000</v>
+      </c>
+      <c r="C213" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>480001</v>
+      </c>
+      <c r="B214">
+        <v>470100</v>
+      </c>
+      <c r="C214" t="s">
+        <v>178</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="P214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>480002</v>
+      </c>
+      <c r="B215">
+        <v>470100</v>
+      </c>
+      <c r="C215" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>480100</v>
+      </c>
+      <c r="B216">
+        <v>480000</v>
+      </c>
+      <c r="C216" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>480101</v>
+      </c>
+      <c r="B217">
+        <v>480100</v>
+      </c>
+      <c r="C217" t="s">
+        <v>180</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="P217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>480102</v>
+      </c>
+      <c r="B218">
+        <v>480100</v>
+      </c>
+      <c r="C218" t="s">
+        <v>181</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>480200</v>
+      </c>
+      <c r="B219">
+        <v>480000</v>
+      </c>
+      <c r="C219" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>480201</v>
+      </c>
+      <c r="B220">
+        <v>480200</v>
+      </c>
+      <c r="C220" t="s">
+        <v>183</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="P220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>480300</v>
+      </c>
+      <c r="B221">
+        <v>480000</v>
+      </c>
+      <c r="C221" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>480301</v>
+      </c>
+      <c r="B222">
+        <v>480300</v>
+      </c>
+      <c r="C222" t="s">
+        <v>185</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>480302</v>
+      </c>
+      <c r="B223">
+        <v>480300</v>
+      </c>
+      <c r="C223" t="s">
+        <v>186</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="P223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C224" t="s">
+        <v>188</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224">
         <v>1</v>
       </c>
     </row>
